--- a/participants/participant_20/participant_20_conditions.xlsx
+++ b/participants/participant_20/participant_20_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16498730650012045" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-1649873065018204" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16498730650192118" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16498730650342395" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_7-16498730653801706" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_6-164987306542816" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_9-16498730657601843" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16498730658051872" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-1649873065955192" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-1649873066579154" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16498730668421874" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16498730674121876" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16498730675561876" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16498730675871513" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16498730676001873" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16498730676011522" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16498730676161516" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16498730676171541" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16498730676321876" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16498730676371522" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-1649873067648156" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-1649873067663188" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-1649873067678154" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16502911846796513" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16502911846966484" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16502911846986635" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16502911847136524" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_8-16502911850376484" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_3-16502911852736638" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_6-16502911855806491" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16502911856356516" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16502911856986487" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16502911866206748" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-1650291186734665" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16502911868376791" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16502911873026674" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16502911873196678" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16502911873306684" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16502911873316674" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16502911873466687" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16502911873476713" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-1650291187362672" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16502911873676696" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16502911873787093" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16502911873956687" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16502911874106686" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -675,7 +675,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1345,11 +1345,11 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,14 +1682,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1701,11 +1701,11 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1746,14 +1746,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1842,14 +1842,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2038,14 +2038,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2153,11 +2153,11 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2217,11 +2217,11 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2246,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16497937708301866.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-1649862502378852.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16497949938111415.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16497949958633645.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3155,15 +3155,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\RS_TO-16498717396379285.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_26.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_14.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_5.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_12.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_8.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_29.jpg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_10.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_1.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3508,15 +3508,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_13.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3550,15 +3550,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3567,11 +3567,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_15.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3588,19 +3588,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3609,19 +3609,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
         <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3927,10 +3927,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
         <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4152,10 +4152,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
         <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4189,11 +4189,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4202,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4252,10 +4252,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -4389,11 +4389,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -4506,7 +4506,7 @@
         <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -4681,7 +4681,7 @@
         <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
@@ -4781,7 +4781,7 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4828,10 +4828,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
@@ -4906,7 +4906,7 @@
         <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4915,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -5056,7 +5056,7 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5240,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5307,20 +5307,20 @@
         <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -5360,10 +5360,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5391,11 +5391,11 @@
         <v>-0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5404,10 +5404,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5435,17 +5435,17 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="n">
         <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5454,23 +5454,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>-0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5479,23 +5479,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E9" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5504,10 +5504,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -5516,11 +5516,11 @@
         <v>-0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5529,10 +5529,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>-0.25</v>
@@ -5541,11 +5541,11 @@
         <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5554,10 +5554,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>-0.25</v>
@@ -5566,11 +5566,11 @@
         <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5582,20 +5582,20 @@
         <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E13" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5607,13 +5607,13 @@
         <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5629,23 +5629,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E15" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5657,20 +5657,20 @@
         <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5679,16 +5679,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5707,13 +5707,13 @@
         <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5729,16 +5729,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -5757,20 +5757,20 @@
         <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5779,10 +5779,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>-0.25</v>
@@ -5791,11 +5791,11 @@
         <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5804,16 +5804,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -5829,23 +5829,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5854,16 +5854,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
@@ -5891,11 +5891,11 @@
         <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
         <v>0.25</v>
@@ -5932,13 +5932,13 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -5954,16 +5954,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -5979,10 +5979,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>-0.25</v>
@@ -5991,11 +5991,11 @@
         <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6004,16 +6004,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -6035,17 +6035,17 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6105,23 +6105,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E2" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6130,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -6139,7 +6139,7 @@
         <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -6158,13 +6158,13 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6186,10 +6186,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6205,16 +6205,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -6230,23 +6230,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
         <v>-0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6255,7 +6255,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -6267,11 +6267,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6280,10 +6280,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -6311,10 +6311,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E11" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6358,13 +6358,13 @@
         <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -6380,16 +6380,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -6405,16 +6405,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6430,23 +6430,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E15" t="n">
         <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6455,16 +6455,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6483,13 +6483,13 @@
         <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6511,17 +6511,17 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6533,7 +6533,7 @@
         <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -6542,11 +6542,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -6567,11 +6567,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -6605,23 +6605,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.25</v>
       </c>
-      <c r="E22" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6630,10 +6630,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>-0.25</v>
@@ -6655,7 +6655,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -6664,7 +6664,7 @@
         <v>0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6680,23 +6680,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
         <v>0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6705,10 +6705,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
@@ -6730,23 +6730,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6758,7 +6758,7 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -6767,11 +6767,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6780,23 +6780,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6805,7 +6805,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -6814,7 +6814,7 @@
         <v>0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -6830,13 +6830,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E31" t="n">
         <v>-0.25</v>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7399,11 +7399,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_22.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_8.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,19 +7462,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_27.jpeg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,19 +7504,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7550,15 +7550,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_7.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_25.jpeg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_17.jpeg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,11 +7672,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,11 +7714,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_1.jpeg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7735,11 +7735,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_9.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_14.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,17 +7875,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7932,10 +7932,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7992,7 +7992,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8027,17 +8027,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8065,17 +8065,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8122,17 +8122,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8141,10 +8141,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8261,14 +8261,14 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8315,17 +8315,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8375,7 +8375,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8432,14 +8432,14 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8505,17 +8505,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8543,17 +8543,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8562,10 +8562,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8581,10 +8581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8682,14 +8682,14 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8698,17 +8698,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8755,17 +8755,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8796,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8910,14 +8910,14 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8926,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9159,11 +9159,11 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9172,14 +9172,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9531,11 +9531,11 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9544,7 +9544,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>

--- a/participants/participant_20/participant_20_conditions.xlsx
+++ b/participants/participant_20/participant_20_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16502911846796513" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16502911846966484" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16502911846986635" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16502911847136524" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_8-16502911850376484" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_3-16502911852736638" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_6-16502911855806491" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16502911856356516" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16502911856986487" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16502911866206748" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-1650291186734665" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16502911868376791" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16502911873026674" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16502911873196678" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16502911873306684" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16502911873316674" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16502911873466687" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16502911873476713" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-1650291187362672" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16502911873676696" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16502911873787093" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16502911873956687" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16502911874106686" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-1650477821801879" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16504778218278792" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16504778218288815" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16504778218438785" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_1-16504778220438795" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_0-1650477822219878" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_5-16504778222678788" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16504778225988781" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16504778227078753" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-1650477822992913" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16504778233718762" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16504778236099095" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-1650477824428908" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-1650477824450883" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16504778244638805" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-1650477824464878" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16504778244799113" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-1650477824480878" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16504778244959104" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-165047782449888" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16504778245128775" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16504778245279112" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16504778245439112" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1005,11 +1005,11 @@
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1329,11 +1329,11 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1441,11 +1441,11 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1521,11 +1521,11 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,14 +1682,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2185,11 +2185,11 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2214,14 +2214,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2249,11 +2249,11 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3155,15 +3155,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3235,15 +3235,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3273,19 +3273,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3357,11 +3357,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3504,19 +3504,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3525,19 +3525,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3588,11 +3588,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,19 +3630,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
         <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
         <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3877,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3902,10 +3902,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
         <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
         <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4189,11 +4189,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4202,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4252,10 +4252,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4380,7 +4380,7 @@
         <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
         <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4828,10 +4828,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4903,10 +4903,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4915,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -5006,7 +5006,7 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5028,10 +5028,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
         <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -5165,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
         <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5240,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5304,13 +5304,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
         <v>-0.25</v>
@@ -5329,23 +5329,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
         <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5354,23 +5354,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5379,23 +5379,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5404,16 +5404,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5429,10 +5429,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>-0.25</v>
@@ -5441,11 +5441,11 @@
         <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5454,23 +5454,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5479,23 +5479,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5504,23 +5504,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5529,10 +5529,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>-0.25</v>
@@ -5541,11 +5541,11 @@
         <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5560,10 +5560,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5579,23 +5579,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
         <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5616,11 +5616,11 @@
         <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5629,23 +5629,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.25</v>
       </c>
-      <c r="E15" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5654,16 +5654,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -5679,10 +5679,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>-0.25</v>
@@ -5710,17 +5710,17 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5729,10 +5729,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>-0.25</v>
@@ -5754,23 +5754,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5782,13 +5782,13 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -5807,7 +5807,7 @@
         <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>-0.25</v>
@@ -5816,11 +5816,11 @@
         <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5829,13 +5829,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0.25</v>
@@ -5854,16 +5854,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
@@ -5888,7 +5888,7 @@
         <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5904,23 +5904,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5929,16 +5929,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -5960,17 +5960,17 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5982,10 +5982,10 @@
         <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
         <v>-0.25</v>
@@ -6010,10 +6010,10 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -6029,13 +6029,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
         <v>-0.25</v>
@@ -6108,20 +6108,20 @@
         <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
         <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6133,7 @@
         <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0.25</v>
@@ -6158,13 +6158,13 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -6192,11 +6192,11 @@
         <v>-0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6208,10 +6208,10 @@
         <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
         <v>0.25</v>
@@ -6230,23 +6230,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6267,11 +6267,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -6289,14 +6289,14 @@
         <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6308,7 +6308,7 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -6317,11 +6317,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6333,20 +6333,20 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="n">
         <v>-0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
@@ -6367,11 +6367,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6380,23 +6380,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6405,16 +6405,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6433,13 +6433,13 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>-0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -6455,23 +6455,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
         <v>-0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6480,16 +6480,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6533,7 +6533,7 @@
         <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -6555,16 +6555,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -6583,20 +6583,20 @@
         <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6605,10 +6605,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>-0.25</v>
@@ -6630,13 +6630,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0.25</v>
@@ -6655,23 +6655,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6680,10 +6680,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -6711,10 +6711,10 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6730,16 +6730,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -6755,23 +6755,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6780,16 +6780,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6805,16 +6805,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -6830,10 +6830,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
@@ -6842,11 +6842,11 @@
         <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,7 +7022,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7441,19 +7441,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,19 +7483,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7508,15 +7508,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7567,11 +7567,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7588,11 +7588,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_5.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,11 +7672,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7693,19 +7693,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7756,19 +7756,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7818,17 +7818,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7878,14 +7878,14 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7932,10 +7932,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -7989,10 +7989,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8046,17 +8046,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8065,17 +8065,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8160,17 +8160,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8179,17 +8179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8258,17 +8258,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8277,17 +8277,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8296,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8410,10 +8410,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8486,17 +8486,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8660,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8701,14 +8701,14 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8850,17 +8850,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8888,17 +8888,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9204,7 +9204,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -9220,14 +9220,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9303,11 +9303,11 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -9351,11 +9351,11 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9467,11 +9467,11 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9624,14 +9624,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>

--- a/participants/participant_20/participant_20_conditions.xlsx
+++ b/participants/participant_20/participant_20_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-1650477821801879" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16504778218278792" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16504778218288815" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16504778218438785" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_1-16504778220438795" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_0-1650477822219878" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_5-16504778222678788" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16504778225988781" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16504778227078753" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-1650477822992913" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16504778233718762" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16504778236099095" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-1650477824428908" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-1650477824450883" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16504778244638805" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-1650477824464878" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16504778244799113" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-1650477824480878" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16504778244959104" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-165047782449888" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16504778245128775" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16504778245279112" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16504778245439112" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-1650996111930376" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16509961119544177" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16509961119544177" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16509961119704132" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_4-16509961124183767" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_0-1650996112562412" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_9-16509961127543786" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16509961128263743" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16509961131624124" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16509961131944103" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16509961133784156" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-1650996113722417" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-1650996113738425" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-1650996113754445" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-1650996113770411" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-1650996113770411" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16509961137863753" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16509961137863753" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16509961138023832" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16509961138023832" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16509961138184118" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16509961138344178" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16509961138503747" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>go_stim</t>
+          <t>GNG_stim</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -780,7 +780,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -986,14 +986,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1409,11 +1409,11 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1454,14 +1454,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1486,14 +1486,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1505,11 +1505,11 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1518,14 +1518,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1698,14 +1698,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1746,14 +1746,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,14 +2038,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2070,14 +2070,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2246,14 +2246,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2297,11 +2297,11 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2313,11 +2313,11 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3155,15 +3155,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3231,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,11 +3252,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3273,11 +3273,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3294,11 +3294,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_14.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3508,15 +3508,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3588,19 +3588,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>no_go_stimuli\spider_19.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3705,7 +3705,7 @@
         <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -3777,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -3927,10 +3927,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4002,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4252,7 +4252,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
@@ -4352,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4528,10 +4528,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4581,7 +4581,7 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4828,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -4856,7 +4856,7 @@
         <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
         <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
         <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4915,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -5003,7 +5003,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -5028,10 +5028,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5065,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
         <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5103,10 +5103,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
         <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5156,7 +5156,7 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5165,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5240,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5304,23 +5304,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5335,17 +5335,17 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5354,16 +5354,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -5404,16 +5404,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5429,23 +5429,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E7" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5457,10 +5457,10 @@
         <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
@@ -5479,16 +5479,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5507,13 +5507,13 @@
         <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -5538,7 +5538,7 @@
         <v>-0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -5554,23 +5554,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5579,10 +5579,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>-0.25</v>
@@ -5591,11 +5591,11 @@
         <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -5613,14 +5613,14 @@
         <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5629,7 +5629,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
@@ -5641,11 +5641,11 @@
         <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5654,10 +5654,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0.25</v>
@@ -5666,11 +5666,11 @@
         <v>-0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
@@ -5688,7 +5688,7 @@
         <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5704,16 +5704,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -5729,7 +5729,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -5738,14 +5738,14 @@
         <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5757,20 +5757,20 @@
         <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
         <v>-0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5779,16 +5779,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -5804,16 +5804,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -5829,16 +5829,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>-0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -5857,20 +5857,20 @@
         <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5879,23 +5879,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
         <v>0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5904,23 +5904,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5929,16 +5929,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -5954,10 +5954,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5982,13 +5982,13 @@
         <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6007,7 +6007,7 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>-0.25</v>
@@ -6016,11 +6016,11 @@
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6029,16 +6029,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6111,10 +6111,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -6136,17 +6136,17 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6158,13 +6158,13 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E4" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6180,23 +6180,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6205,13 +6205,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
         <v>0.25</v>
@@ -6233,20 +6233,20 @@
         <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6255,10 +6255,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -6267,11 +6267,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6280,13 +6280,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="n">
         <v>-0.25</v>
@@ -6305,23 +6305,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6330,10 +6330,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>-0.25</v>
@@ -6342,11 +6342,11 @@
         <v>-0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6367,11 +6367,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6383,13 +6383,13 @@
         <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -6405,16 +6405,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6433,7 +6433,7 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>-0.25</v>
@@ -6455,10 +6455,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>-0.25</v>
@@ -6480,16 +6480,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6511,10 +6511,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -6530,23 +6530,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6558,20 +6558,20 @@
         <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6580,16 +6580,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -6605,16 +6605,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E22" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.25</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -6630,7 +6630,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -6642,11 +6642,11 @@
         <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6658,20 +6658,20 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
         <v>0.25</v>
@@ -6708,7 +6708,7 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>-0.25</v>
@@ -6730,23 +6730,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6758,7 +6758,7 @@
         <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
@@ -6780,23 +6780,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E29" t="n">
         <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6805,10 +6805,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>-0.25</v>
@@ -6817,11 +6817,11 @@
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6833,13 +6833,13 @@
         <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>go_stim</t>
+          <t>GNG_stim</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7441,19 +7441,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,19 +7483,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,7 +7546,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -7571,15 +7571,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7588,11 +7588,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7672,11 +7672,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7693,19 +7693,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,17 +7875,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7894,17 +7894,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8068,14 +8068,14 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -8103,17 +8103,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8179,17 +8179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8258,17 +8258,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8277,7 +8277,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -8448,7 +8448,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8486,7 +8486,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8505,17 +8505,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8524,7 +8524,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -8543,17 +8543,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8660,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8720,14 +8720,14 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8774,17 +8774,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8796,14 +8796,14 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8831,10 +8831,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8888,17 +8888,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8926,17 +8926,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9124,14 +9124,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9271,11 +9271,11 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9316,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9464,14 +9464,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9496,14 +9496,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9611,11 +9611,11 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9739,11 +9739,11 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>

--- a/participants/participant_20/participant_20_conditions.xlsx
+++ b/participants/participant_20/participant_20_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-1650996111930376" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16509961119544177" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16509961119544177" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16509961119704132" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_4-16509961124183767" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_0-1650996112562412" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_9-16509961127543786" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16509961128263743" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16509961131624124" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16509961131944103" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16509961133784156" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-1650996113722417" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-1650996113738425" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-1650996113754445" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-1650996113770411" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-1650996113770411" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16509961137863753" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16509961137863753" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16509961138023832" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16509961138023832" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16509961138184118" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16509961138344178" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16509961138503747" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16511687092515771" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16511687092765791" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16511687092785795" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-1651168709292577" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_9-16511687093705802" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_0-16511687095087662" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_0-16511687096469696" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16511687097215207" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-1651168710704904" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16511687109330406" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16511687116331182" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16511687118523893" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16511687126514444" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-165116871268223" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-1651168712707984" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16511687127089481" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-1651168712723266" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-1651168712724254" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16511687127387373" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16511687127437363" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16511687127694857" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16511687127850873" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16511687128000188" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -507,7 +507,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,7 +734,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -780,7 +780,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -822,7 +822,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -989,11 +989,11 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1197,11 +1197,11 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1454,14 +1454,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1473,11 +1473,11 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1486,14 +1486,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1518,14 +1518,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,14 +1682,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1829,11 +1829,11 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1842,14 +1842,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1893,11 +1893,11 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1922,14 +1922,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2070,14 +2070,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,14 +2214,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2246,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2867,15 +2867,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3231,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_5.jpeg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,11 +3252,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3273,11 +3273,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3298,15 +3298,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3315,19 +3315,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3378,11 +3378,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,11 +3420,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,19 +3504,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3529,15 +3529,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,11 +3567,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3588,11 +3588,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_19.jpg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3877,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3930,7 +3930,7 @@
         <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
         <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4052,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4214,11 +4214,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4252,10 +4252,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
         <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4352,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -4405,7 +4405,7 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
         <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4528,10 +4528,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4578,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4703,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4728,7 +4728,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4778,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4828,10 +4828,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4878,10 +4878,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -4915,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5028,10 +5028,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5065,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -5103,7 +5103,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -5165,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -5304,16 +5304,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5329,23 +5329,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>-0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5354,10 +5354,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
@@ -5366,11 +5366,11 @@
         <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5379,23 +5379,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="n">
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
         <v>0.25</v>
@@ -5435,10 +5435,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -5460,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
@@ -5479,7 +5479,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -5491,11 +5491,11 @@
         <v>-0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5504,16 +5504,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5529,13 +5529,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
         <v>-0.25</v>
@@ -5557,20 +5557,20 @@
         <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.25</v>
       </c>
-      <c r="E12" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5579,23 +5579,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5604,10 +5604,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
@@ -5616,11 +5616,11 @@
         <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5632,7 +5632,7 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>-0.25</v>
@@ -5641,11 +5641,11 @@
         <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5654,23 +5654,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5685,17 +5685,17 @@
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5707,20 +5707,20 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5729,23 +5729,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
         <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5754,16 +5754,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -5779,16 +5779,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -5804,7 +5804,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -5816,11 +5816,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5829,10 +5829,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>-0.25</v>
@@ -5854,23 +5854,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5879,10 +5879,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -5904,16 +5904,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -5929,23 +5929,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
         <v>0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5954,16 +5954,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -5982,20 +5982,20 @@
         <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6007,13 +6007,13 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -6029,16 +6029,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6105,23 +6105,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6130,16 +6130,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.25</v>
@@ -6180,16 +6180,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6205,16 +6205,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -6233,20 +6233,20 @@
         <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6255,16 +6255,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -6280,16 +6280,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -6308,13 +6308,13 @@
         <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -6330,16 +6330,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -6358,20 +6358,20 @@
         <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
         <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
@@ -6405,10 +6405,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
@@ -6433,13 +6433,13 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -6455,23 +6455,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6480,10 +6480,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>-0.25</v>
@@ -6508,13 +6508,13 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E18" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.25</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -6533,10 +6533,10 @@
         <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
         <v>0.25</v>
@@ -6555,23 +6555,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6580,23 +6580,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6611,17 +6611,17 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
         <v>-0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6642,11 +6642,11 @@
         <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6655,23 +6655,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E24" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -6689,14 +6689,14 @@
         <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6708,10 +6708,10 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
         <v>-0.25</v>
@@ -6742,11 +6742,11 @@
         <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -6786,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
         <v>-0.25</v>
@@ -6805,10 +6805,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>-0.25</v>
@@ -6817,11 +6817,11 @@
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6833,20 +6833,20 @@
         <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,7 +7232,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7399,11 +7399,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7420,11 +7420,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7441,19 +7441,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7462,19 +7462,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,7 +7525,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -7546,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7588,19 +7588,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,11 +7630,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7676,15 +7676,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,11 +7714,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7760,15 +7760,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7856,17 +7856,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7875,17 +7875,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7894,17 +7894,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7951,17 +7951,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8027,17 +8027,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8046,17 +8046,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8065,17 +8065,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8144,14 +8144,14 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8160,17 +8160,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8277,7 +8277,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8315,17 +8315,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -8448,17 +8448,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8467,7 +8467,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -8486,7 +8486,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -8543,17 +8543,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8682,14 +8682,14 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8717,17 +8717,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8774,17 +8774,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8793,10 +8793,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8815,14 +8815,14 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8831,10 +8831,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8888,17 +8888,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8907,17 +8907,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8926,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9159,11 +9159,11 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9496,14 +9496,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9544,7 +9544,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9624,14 +9624,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9643,11 +9643,11 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>

--- a/participants/participant_20/participant_20_conditions.xlsx
+++ b/participants/participant_20/participant_20_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16511687092515771" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16511687092765791" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16511687092785795" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-1651168709292577" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_9-16511687093705802" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_0-16511687095087662" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_0-16511687096469696" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16511687097215207" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-1651168710704904" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16511687109330406" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16511687116331182" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16511687118523893" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16511687126514444" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-165116871268223" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-1651168712707984" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16511687127089481" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-1651168712723266" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-1651168712724254" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16511687127387373" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16511687127437363" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16511687127694857" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16511687127850873" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16511687128000188" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16512555349584014" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16512555349853992" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16512555349874117" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16512555350014086" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_8-1651255535029402" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_1-16512555350944104" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_4-1651255535336214" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-1651255535609213" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16512555358282135" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-1651255536184218" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16512555362112145" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16512555363792148" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16512555370502155" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16512555370802197" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16512555371042135" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-165125553710522" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-1651255537120215" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16512555371212165" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16512555371362162" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-165125553714122" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-1651255537168215" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-1651255537184214" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-1651255537200213" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1117,11 +1117,11 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1130,14 +1130,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1165,11 +1165,11 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1518,14 +1518,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1746,14 +1746,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1842,14 +1842,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1909,11 +1909,11 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1954,14 +1954,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3235,15 +3235,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3277,15 +3277,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3319,15 +3319,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3378,11 +3378,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,11 +3504,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3571,15 +3571,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3588,19 +3588,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3609,19 +3609,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
         <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3930,7 +3930,7 @@
         <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
         <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
         <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -4152,10 +4152,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4214,11 +4214,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4252,7 +4252,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -4355,7 +4355,7 @@
         <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -4430,7 +4430,7 @@
         <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4703,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4778,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4828,10 +4828,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4903,10 +4903,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5153,10 +5153,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5165,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5304,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0.25</v>
@@ -5335,10 +5335,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E3" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.25</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5354,23 +5354,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
         <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5379,23 +5379,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5404,16 +5404,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.25</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5429,13 +5429,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
         <v>0.25</v>
@@ -5454,23 +5454,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5479,13 +5479,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="n">
         <v>-0.25</v>
@@ -5510,10 +5510,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E10" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5532,20 +5532,20 @@
         <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5560,10 +5560,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5579,23 +5579,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5604,10 +5604,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
@@ -5629,7 +5629,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -5638,7 +5638,7 @@
         <v>-0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -5654,16 +5654,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -5679,23 +5679,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5704,16 +5704,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5729,16 +5729,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -5754,16 +5754,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>-0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -5779,23 +5779,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
         <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5804,23 +5804,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5832,10 +5832,10 @@
         <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
         <v>0.25</v>
@@ -5857,10 +5857,10 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
         <v>-0.25</v>
@@ -5879,16 +5879,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -5904,16 +5904,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -5932,10 +5932,10 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E27" t="n">
         <v>0.25</v>
@@ -5954,23 +5954,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="n">
         <v>-0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5985,17 +5985,17 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E29" t="n">
         <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6004,7 +6004,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -6029,23 +6029,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6108,20 +6108,20 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.25</v>
       </c>
-      <c r="E2" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6130,16 +6130,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6155,23 +6155,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6183,20 +6183,20 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6205,16 +6205,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -6230,10 +6230,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -6242,11 +6242,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6255,10 +6255,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0.25</v>
@@ -6267,11 +6267,11 @@
         <v>-0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6283,13 +6283,13 @@
         <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -6305,16 +6305,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6355,16 +6355,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6380,16 +6380,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -6411,17 +6411,17 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6433,20 +6433,20 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6455,16 +6455,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6480,23 +6480,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
         <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6508,10 +6508,10 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
         <v>-0.25</v>
@@ -6530,23 +6530,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6555,16 +6555,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -6592,11 +6592,11 @@
         <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6605,23 +6605,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6633,20 +6633,20 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6655,23 +6655,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.25</v>
       </c>
-      <c r="E24" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -6689,7 +6689,7 @@
         <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6705,23 +6705,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6730,23 +6730,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6755,23 +6755,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="n">
         <v>-0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6780,13 +6780,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E29" t="n">
         <v>-0.25</v>
@@ -6808,20 +6808,20 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6830,23 +6830,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7382,15 +7382,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7441,19 +7441,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7550,15 +7550,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7588,19 +7588,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7609,19 +7609,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,19 +7672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7693,19 +7693,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,17 +7818,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7856,17 +7856,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7875,17 +7875,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8030,14 +8030,14 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8065,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
         <v>8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8122,17 +8122,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8141,10 +8141,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -8179,17 +8179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8296,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8410,10 +8410,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8448,17 +8448,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8565,7 +8565,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8603,14 +8603,14 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8717,17 +8717,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8793,10 +8793,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -8834,7 +8834,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8850,17 +8850,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8888,17 +8888,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8926,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
         <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9124,14 +9124,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -9172,14 +9172,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9223,11 +9223,11 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9595,11 +9595,11 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -9624,14 +9624,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9672,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -9691,11 +9691,11 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
